--- a/biology/Médecine/Clystère/Clystère.xlsx
+++ b/biology/Médecine/Clystère/Clystère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clyst%C3%A8re</t>
+          <t>Clystère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le clystère (emprunté au grec κλυστήρ / klustḗr , « seringue ») est le nom anciennement donné au lavement, un traitement à base d'eau salée ou d'une potion plus complexe, très fréquemment administré dans de nombreuses indications aux XVIIe et XVIIIe siècles.
-Par extension, il désigne aussi la grande seringue métallique, généralement en étain, utilisée à cet effet. La période XVIe – XVIIe siècles a pu être qualifiée d’« âge de l'étain ». « […] l’instrument d'Ambroise Paré avait dû être rapidement remplacé par la canule recourbée. […] C’est au XIXe siècle que se produira le dernier changement, lorsqu’on passera du système de piston, nécessitant une poussée manuelle, à celui de la pression, par l’élévation d’un bock […][1]. »
-« Il existait différentes sortes de clystères. Il y avait des clystères purgatifs, des clystères carminatifs (c'est-à-dire pour faire cesser les vents, favoriser l'évacuation des vents), ou encore des clystères lénitifs pour calmer[2]. »
-Il existe une revue électronique consacrée à l’histoire de la médecine vue à travers ses instruments nommée Clystère[3].
+Par extension, il désigne aussi la grande seringue métallique, généralement en étain, utilisée à cet effet. La période XVIe – XVIIe siècles a pu être qualifiée d’« âge de l'étain ». « […] l’instrument d'Ambroise Paré avait dû être rapidement remplacé par la canule recourbée. […] C’est au XIXe siècle que se produira le dernier changement, lorsqu’on passera du système de piston, nécessitant une poussée manuelle, à celui de la pression, par l’élévation d’un bock […]. »
+« Il existait différentes sortes de clystères. Il y avait des clystères purgatifs, des clystères carminatifs (c'est-à-dire pour faire cesser les vents, favoriser l'évacuation des vents), ou encore des clystères lénitifs pour calmer. »
+Il existe une revue électronique consacrée à l’histoire de la médecine vue à travers ses instruments nommée Clystère.
 Le terme clystérophilie désigne aujourd'hui une pratique liée à la scatophilie.
 </t>
         </is>
